--- a/access_logs.xlsx
+++ b/access_logs.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>264:14:21</t>
+          <t>990:24:47</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>49:22:56</t>
+          <t>775:33:23</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16:34-16:35, 16:51-16:51, 17:29-17:31</t>
+          <t>16:34-16:35, 16:51-16:51, 17:29-17:31, 17:53-17:53, 17:54-17:54, 17:54-17:54, 17:54-17:54, 17:54-17:54, 17:54-17:54, 17:55-17:55, 17:55-17:55, 17:55-17:55, 17:55-17:55, 17:55-17:55, 17:56-17:56, 17:56-17:56, 17:56-17:56, 17:56-17:56, 17:56-17:56, 17:57-17:57, 17:57-17:57, 17:57-17:57, 17:57-17:57, 17:57-17:57, 17:58-17:58, 17:58-17:58, 17:58-17:58, 17:58-17:58, 17:58-17:58, 17:59-17:59, 17:59-17:59, 17:59-17:59, 17:59-17:59, 17:59-17:59, 18:00-18:00, 18:00-18:00, 18:00-18:00, 18:00-18:00, 18:00-18:00, 18:01-18:01, 18:01-18:01, 18:01-18:02</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>00:02:24</t>
+          <t>00:07:09</t>
         </is>
       </c>
     </row>
@@ -866,8 +866,16 @@
           <t>2025-08-05</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>21:20-未退室</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>650:38:14</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -875,8 +883,16 @@
           <t>2025-08-06</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>07:25-11:13</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>03:47:44</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -947,8 +963,16 @@
           <t>2025-08-14</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>20:30-21:24</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>00:53:49</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -983,8 +1007,16 @@
           <t>2025-08-18</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>16:08-17:25</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>01:16:35</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -992,8 +1024,16 @@
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>17:14-17:47</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>00:32:55</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1001,8 +1041,16 @@
           <t>2025-08-20</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>03:10-07:45, 16:23-22:35</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>10:47:28</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1010,8 +1058,16 @@
           <t>2025-08-21</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>21:25-21:25</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>00:00:11</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1046,8 +1102,16 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>12:58-20:24</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>07:25:44</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1055,8 +1119,16 @@
           <t>2025-08-26</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>09:49-20:30</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>10:41:27</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1064,8 +1136,16 @@
           <t>2025-08-27</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>11:58-18:26</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>06:28:08</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1073,8 +1153,16 @@
           <t>2025-08-28</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>11:00-15:11</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>04:10:25</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1102,6 +1190,293 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>--- 2025年09月 ---</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>11:03-21:25</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>10:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1114,7 +1489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1295,7 +1670,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>436:43:15</t>
+          <t>1162:53:42</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1758,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>244:44:59</t>
+          <t>970:55:26</t>
         </is>
       </c>
     </row>
@@ -1750,6 +2125,285 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>--- 2025年09月 ---</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1762,7 +2416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2660,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>264:15:08</t>
+          <t>990:25:35</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2686,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>222:58:40</t>
+          <t>949:09:07</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2922,11 @@
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2285,8 +2943,16 @@
           <t>2025-08-20</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>17:14-未退室</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>294:44:21</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2386,6 +3052,285 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>--- 2025年09月 ---</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2398,7 +3343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2571,7 +3516,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>435:34:43</t>
+          <t>1161:45:10</t>
         </is>
       </c>
     </row>
@@ -2651,7 +3596,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>244:48:43</t>
+          <t>970:59:09</t>
         </is>
       </c>
     </row>
@@ -2788,7 +3733,11 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3014,6 +3963,285 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>--- 2025年09月 ---</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3026,7 +4254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3217,7 +4445,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>389:46:45</t>
+          <t>1115:57:11</t>
         </is>
       </c>
     </row>
@@ -3372,7 +4600,11 @@
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3634,6 +4866,285 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>--- 2025年09月 ---</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3646,7 +5157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3882,7 +5393,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>264:14:51</t>
+          <t>990:25:18</t>
         </is>
       </c>
     </row>
@@ -4238,8 +5749,16 @@
           <t>2025-08-29</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>23:56-23:56</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>00:00:06</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4258,6 +5777,285 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>--- 2025年09月 ---</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/access_logs.xlsx
+++ b/access_logs.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>990:24:47</t>
+          <t>2067:33:22</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>775:33:23</t>
+          <t>1852:41:58</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>650:38:14</t>
+          <t>1727:46:49</t>
         </is>
       </c>
     </row>
@@ -1223,8 +1223,16 @@
           <t>2025-09-02</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>10:30-20:08</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>09:37:51</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1232,8 +1240,16 @@
           <t>2025-09-03</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>13:31-22:01</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>08:30:22</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1241,8 +1257,16 @@
           <t>2025-09-04</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>14:27-21:52</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>07:25:08</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1349,8 +1373,16 @@
           <t>2025-09-16</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>11:07-19:14</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>08:06:19</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1358,8 +1390,16 @@
           <t>2025-09-17</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>10:07-20:22</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10:15:05</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1367,8 +1407,16 @@
           <t>2025-09-18</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>12:48-22:16</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>09:28:07</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1376,8 +1424,16 @@
           <t>2025-09-19</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>13:39-未退室</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>655:28:16</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1385,8 +1441,16 @@
           <t>2025-09-20</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>03:36-03:36</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>00:00:15</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1421,8 +1485,16 @@
           <t>2025-09-24</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>09:45-21:24</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>11:39:12</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1430,8 +1502,16 @@
           <t>2025-09-25</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>09:08-21:40</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12:31:50</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1439,8 +1519,16 @@
           <t>2025-09-26</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>12:38-21:24</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>08:46:33</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1477,6 +1565,382 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>--- 2025年10月 ---</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>11:02-14:56</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>03:53:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>10:18-22:06</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>11:48:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>17:00-18:27</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>01:27:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>11:23-未退室</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>249:44:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>03:10-13:26</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>10:16:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>01:33-01:41</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>00:07:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>12:24-23:01</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>10:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>14:20-18:53, 20:12-未退室</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>125:27:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>15:13-22:39, 22:49-23:36</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>08:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>17:00-未退室</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>04:06:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1489,7 +1953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1670,7 +2134,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1162:53:42</t>
+          <t>2240:02:16</t>
         </is>
       </c>
     </row>
@@ -1758,7 +2222,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>970:55:26</t>
+          <t>2048:04:01</t>
         </is>
       </c>
     </row>
@@ -2404,6 +2868,294 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>--- 2025年10月 ---</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2416,7 +3168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +3412,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>990:25:35</t>
+          <t>2067:34:09</t>
         </is>
       </c>
     </row>
@@ -2686,7 +3438,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>949:09:07</t>
+          <t>2026:17:41</t>
         </is>
       </c>
     </row>
@@ -2950,7 +3702,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>294:44:21</t>
+          <t>1371:52:56</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3821,11 @@
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3331,6 +4087,294 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>--- 2025年10月 ---</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3343,7 +4387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3516,7 +4560,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1161:45:10</t>
+          <t>2238:53:45</t>
         </is>
       </c>
     </row>
@@ -3596,7 +4640,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>970:59:09</t>
+          <t>2048:07:44</t>
         </is>
       </c>
     </row>
@@ -4242,6 +5286,294 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>--- 2025年10月 ---</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4254,7 +5586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,7 +5777,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1115:57:11</t>
+          <t>2193:05:46</t>
         </is>
       </c>
     </row>
@@ -5145,6 +6477,294 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>--- 2025年10月 ---</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5157,7 +6777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5393,7 +7013,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>990:25:18</t>
+          <t>2067:33:53</t>
         </is>
       </c>
     </row>
@@ -6056,6 +7676,294 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>--- 2025年10月 ---</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
